--- a/test-output/Output Files/Upcoming Requirements.xlsx
+++ b/test-output/Output Files/Upcoming Requirements.xlsx
@@ -12,10 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
-  <si>
-    <t>Honda Grazia</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Honda CB Hornet 160R</t>
   </si>
@@ -26,19 +23,13 @@
     <t>Honda CBF190R</t>
   </si>
   <si>
-    <t>70,000 onwards</t>
-  </si>
-  <si>
     <t>86,500 onwards</t>
   </si>
   <si>
     <t>80,325 onwards</t>
   </si>
   <si>
-    <t>1.10 lakh onwards</t>
-  </si>
-  <si>
-    <t>Exp. Launch : July 2020</t>
+    <t>1.1 Lakh onwards</t>
   </si>
   <si>
     <t>Exp. Launch : August 2020</t>
@@ -86,7 +77,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -102,36 +93,27 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/test-output/Output Files/Upcoming Requirements.xlsx
+++ b/test-output/Output Files/Upcoming Requirements.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+  <si>
+    <t>Honda Livo BS6</t>
+  </si>
   <si>
     <t>Honda CB Hornet 160R</t>
   </si>
@@ -23,13 +26,19 @@
     <t>Honda CBF190R</t>
   </si>
   <si>
-    <t>86,500 onwards</t>
+    <t>Rs. 67,000</t>
   </si>
   <si>
-    <t>80,325 onwards</t>
+    <t>Rs. 86,500</t>
   </si>
   <si>
-    <t>1.1 Lakh onwards</t>
+    <t>Rs. 80,325</t>
+  </si>
+  <si>
+    <t>Rs. 1.1 Lakh</t>
+  </si>
+  <si>
+    <t>Exp. Launch : 30 Jun 2020</t>
   </si>
   <si>
     <t>Exp. Launch : August 2020</t>
@@ -77,7 +86,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -93,27 +102,36 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
